--- a/アルバム更新・削除_単体テスト.xlsx
+++ b/アルバム更新・削除_単体テスト.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47FDF95C-A543-48E2-B911-3F22901F75BF}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2BD7E0-ACC5-4EA8-9274-1544F391E98E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="5" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="マイページ画面" sheetId="5" r:id="rId1"/>
+    <sheet name="アルバム更新画面" sheetId="5" r:id="rId1"/>
     <sheet name="アカウント更新確認画面" sheetId="6" state="hidden" r:id="rId2"/>
-    <sheet name="マイページ更新完了画面" sheetId="7" r:id="rId3"/>
-    <sheet name="アカウント削除画面" sheetId="1" r:id="rId4"/>
+    <sheet name="アルバム更新完了画面" sheetId="7" r:id="rId3"/>
+    <sheet name="アルバム削除画面" sheetId="1" r:id="rId4"/>
     <sheet name="アカウント削除確認画面" sheetId="3" state="hidden" r:id="rId5"/>
-    <sheet name="アカウント削除完了画面" sheetId="4" r:id="rId6"/>
+    <sheet name="アルバム削除完了画面" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="158">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -159,156 +159,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント削除画面</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="10" eb="12">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「確認する」ボタンの表示</t>
     <rPh sb="1" eb="3">
       <t>カクニン</t>
@@ -345,19 +195,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント削除画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>該当アカウントの「名前（姓）」の表示</t>
     <rPh sb="0" eb="2">
       <t>ガイトウ</t>
@@ -552,19 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント削除完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したためアカウント削除できません。」と赤字で表示する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -614,16 +438,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント更新画面</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント更新確認画面</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -637,19 +451,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント更新完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>単体テスト</t>
     <rPh sb="0" eb="2">
       <t>タンタイ</t>
@@ -657,19 +458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アカウント更新画面」の表示</t>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント更新</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
@@ -975,39 +763,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（姓）、名前（名）、カナ（姓）、カナ（名）、メールアドレス</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード、性別、郵便番号、住所（都道府県）、住所（市区町村）、</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>delete.phpの表示</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント削除確認画面のURL/delete_confirm.phpが表示されているか</t>
     <rPh sb="5" eb="7">
       <t>サクジョ</t>
@@ -1073,486 +828,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント更新画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（姓）が最大入力文字数は10文字か確認</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（名）が最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メールアドレスが最大入力文字数は100文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードが最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>郵便番号が最大入力文字数は7文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（市区町村）が最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所（番地）が最大入力文字数は100文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（姓）」に10文字以上入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（名）」に10文字以上入力する</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「カナ（姓）」に10文字以上入力する</t>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「メールアドレス」に100文字以上入力する</t>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「パスワード」に10文字以上入力する</t>
-    <rPh sb="12" eb="14">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「郵便番号」に7文字以上入力する</t>
-    <rPh sb="3" eb="7">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（都道府県）」のプルダウンメニューを開く</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（市区町村）」に10文字以上入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（番地）」に100文字以上入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10文字以上反映できないようになっている</t>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>100文字以上反映できないようになっている</t>
-    <rPh sb="3" eb="5">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7文字以上反映できないようになっている</t>
-    <rPh sb="1" eb="3">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沖縄から北海道まで47都道府県の表示</t>
-    <rPh sb="0" eb="2">
-      <t>オキナワ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ホッカイドウ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」はひらがな、漢字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」はひらがな、漢字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」は半角英数字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」は半角英数字、半角ハイフン、半角記号（ハイフンとアットマーク）のみ入力可能</t>
-  </si>
-  <si>
-    <t>「郵便番号」は半角数字のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」はひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）のみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」が未入力の場合、「名前（姓）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」が未入力の場合、「名前（名）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（姓）」が未入力の場合、「カナ（姓）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（名）」が未入力の場合、「カナ（名）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」が未入力の場合、「メールアドレスが未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号」が未入力の場合、「郵便番号が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（都道府県）」が未入力の場合、「都道府県を選択してください。」とエラーメッセージを表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」が未入力の場合、「住所（市区町村）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」が未入力の場合、「住所（番地）が未入力です。」とエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入力された値が表示</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -1566,521 +841,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「名前（姓）が未入力です。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）が未入力です。」と表示</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（姓）が未入力です。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（名）が未入力です。」と表示</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスが未入力です。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号が未入力です。」と表示</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県を選択してください。」と表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）が未入力です。」と表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）が未入力です。」と表示</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（姓）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.「確認する」ボタンを押す</t>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（名）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「カナ（姓）」を未入力にする</t>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「カナ（名）」を未入力にする</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「メールアドレス」を未入力にする</t>
-    <rPh sb="12" eb="15">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「パスワード」を未入力にする</t>
-    <rPh sb="10" eb="13">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「郵便番号」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ユウビン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（都道府県）」を未選択にする</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（市区町村）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（番地）」を未入力にする</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（姓）」にひらがな、漢字のみ入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「名前（名）」にひらがな、漢字のみ入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「パスワード」に半角英数字のみ入力する</t>
-    <rPh sb="10" eb="12">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「メールアドレス」に半角英数字、半角ハイフン、半角記号のみ入力</t>
-    <rPh sb="12" eb="14">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「郵便番号」に半角数字のみ入力</t>
-    <rPh sb="3" eb="7">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「住所（市区町村）」にひらがな、漢字、数字、カタカナ、</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記号のみ入力</t>
-  </si>
-  <si>
-    <t>1.「住所（番地）」にひらがな、漢字、数字、カタカナ、</t>
-    <rPh sb="3" eb="5">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>スウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（姓）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「カナ（名）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレス」のUIがテキストボックスとなっているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」のUIがテキストボックスとなっているか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別」のUIがラジオボタンとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（都道府県）」のUIがプルダウンとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>トドウフケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）」のUIがテキストボックスとなっているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限」のUIがプルダウンとなっているか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIがテキストボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIがプルダウン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UIがラジオボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント一覧の「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1,アカウント更新画面の「確認する」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント更新確認画面の「前に戻る」ボタンを押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3,アカウント更新画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント更新確認画面の「前に戻る」を押したときに、更新された入力値がセットされているか</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新された入力値がセットされている</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードは安全上伏せます」の表示</t>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2150,66 +910,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.アカウント更新画面で新たに値を入れ、「確認する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント更新確認画面の「更新する」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4.アカウント更新完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したためアカウント更新できません。」とエラーメッセージを</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2412,272 +1112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「パスワード」が未入力の場合、エラーメッセージは表示しない。</t>
-    <rPh sb="8" eb="11">
-      <t>ミニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エラーメッセージは表示されない</t>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネーム」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="9" eb="11">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「ニックネーム」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワード」の該当アカウント情報が空欄で「変更する場合のみ入力」の表示</t>
-    <rPh sb="8" eb="10">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値は空欄で、「変更する場合のみ入力」の表示</t>
-    <rPh sb="0" eb="1">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クウラン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県」の該当アカウント情報がテキスト表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「都道府県」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニックネームが最大入力文字数は10文字か確認</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネーム」はカタカナのみ入力可</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.「ニックネーム」にカタカナのみ入力する</t>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>都道府県が北海道～沖縄の４７都道府県の並び順の確認</t>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「マイページ」の表示</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウントを削除しますか？削除すると復元することはできません。」の表示</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>フクゲン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「プロフィール画像」の表示</t>
-    <rPh sb="0" eb="2">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「名前（姓）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「メールアドレス」の表示</t>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「性別」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「郵便番号」の表示</t>
-    <rPh sb="9" eb="13">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「都道府県」の表示</t>
-    <rPh sb="9" eb="13">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「住所（市区町村）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「住所（番地）」の表示</t>
-    <rPh sb="9" eb="11">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>該当アカウントの「アカウント権限」の表示</t>
-    <rPh sb="14" eb="16">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「削除」ボタンの表示</t>
     <rPh sb="1" eb="3">
       <t>サクジョ</t>
@@ -2688,35 +1122,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>該当アカウントのパスワードは「安全上表示されません」の表示</t>
-    <rPh sb="15" eb="17">
-      <t>アンゼン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除画面のURL/account-delete.phpが表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>戻るボタンの表示</t>
     <rPh sb="0" eb="1">
       <t>モド</t>
@@ -2727,365 +1132,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.マイページ画面の「…」ボタンを押し、「削除」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>イチガメン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント削除完了画面のURL/account-delete-complete.phpの表示</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>account-delete-complete.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウントが削除されました」の表示</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント一覧へ」ボタンの表示</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.アカウント削除画面の「削除」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.アカウント削除完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウントが削除されました。</t>
-    <rPh sb="6" eb="8">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント一覧へボタンの表示</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.アカウント一覧画面のアカウントを押す</t>
-    <rPh sb="7" eb="9">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「名前（姓）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3.マイページ更新完了画面に遷移</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「名前（名）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネームが更新されました。」が表示されているか</t>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「ニックネーム」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスが更新されました。」が表示されているか</t>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが更新されました。」が表示されているか</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="5">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）が更新されました。」が表示されているか</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限が更新されました。」が表示されているか</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プロフィール画像が更新されました。」が表示されているか</t>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>変更がなかった場合、「変更はありませんでした。」が表示されているか</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
@@ -3102,369 +1148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「マイページへ」ボタンが表示されているか</t>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「メールアドレス」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「パスワード」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「性別」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「郵便番号」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「都道府県」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「住所（市区町村）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「住所（番地）」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面の「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で未変更で、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「プロフィール画像」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2.マイページ画面で「アカウント権限」を変更し、「更新」を押す</t>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したため、アカウント更新ができませんでした。」とエラーメッセージを</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント更新完了画面のURL/mypage-update-complete.phpが表示されているか</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>URL/mypage-update-complete.phpの表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（姓）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「名前（名）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「ニックネームが更新されました」</t>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「メールアドレスが更新されました」</t>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「パスワードが更新されました」</t>
-    <rPh sb="7" eb="9">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「性別が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「郵便番号が更新されました」</t>
-    <rPh sb="1" eb="5">
-      <t>ユウビンバンゴウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「都道府県が更新されました」</t>
-    <rPh sb="1" eb="5">
-      <t>トドウフケン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（市区町村）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チョウソン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「住所（番地）が更新されました」</t>
-    <rPh sb="1" eb="3">
-      <t>ジュウショ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>バンチ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント権限が更新されました」</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「プロフィール画像が更新されました」</t>
-    <rPh sb="7" eb="9">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「変更はありませんでした」</t>
     <rPh sb="1" eb="3">
       <t>ヘンコウ</t>
@@ -3472,22 +1155,810 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「マイページへ」ボタンの表示</t>
+    <t>アルバム削除完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム削除画面</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバムが削除されました」の表示</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバム一覧へ」ボタンの表示</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム削除完了画面のURL/album-delete-complete.phpの表示</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>album-delete-complete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム削除画面の「削除」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム情報画面の「…」ボタンを押し、「削除」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アルバム削除完了画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバムが削除されました。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム一覧へボタンの表示</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバムを削除しますか？削除すると復元することはできません。」の表示</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フクゲン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アルバムの「タイトル」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アルバムの登録されている写真枚数の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント削除画面のURL/album-delete.phpが表示されているか</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>album-delete.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム削除画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバムを削除しますか？削除すると復元することはできません。」</t>
+  </si>
+  <si>
+    <t>「戻る」ボタンの表示</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム更新画面</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム更新完了画面</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アルバム情報画面の「…」ボタンを押し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチガメン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム更新画面の「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.アルバム更新完了画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム更新完了画面のURL/album-update-complete.phpが表示されているか</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL/album-update-complete.phpの表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新時にエラーが発生する場合は、画面に「エラーが発生したため、アルバム更新ができませんでした。」とエラーメッセージを</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したため、アルバム更新ができませんでした。」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバムへ」ボタンが表示されているか</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトルが更新されました。」が表示されているか</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトルが更新されました」</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム更新画面の「タイトル」を変更し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真が更新されました。」が表示されているか</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム更新画面の「写真」を変更し、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真が更新されました」</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.アルバム更新画面で未変更で、「更新」を押す</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アルバムの「タイトル」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アルバムの「写真」が表示されているか</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
     <rPh sb="12" eb="14">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>赤字で「エラーが発生したため、アカウント更新ができませんでした。」</t>
+    <t>「更新」ボタンの表示</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」が最大入力文字数は30文字か確認</t>
+    <rPh sb="20" eb="22">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録できる写真の最大枚数が10枚か確認</t>
     <rPh sb="0" eb="2">
-      <t>アカジ</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャシン</t>
     </rPh>
     <rPh sb="8" eb="10">
-      <t>ハッセイ</t>
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アルバムへ」ボタンの表示</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真が追加アイコンか確認</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」はJPEG、PNG、GIFのみ選択可</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」が入力必須項目か確認</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択した写真が、プレビューエリアで表示されているか確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「写真」が入力必須項目か確認</t>
+    <rPh sb="1" eb="3">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「タイトル」はひらがな、漢字、カタカナ、半角数字、記号、全角スペース、空白の入力可</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ひらがな、漢字、カタカナ、半角数字、記号、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角スペース、空白の入力する</t>
+  </si>
+  <si>
+    <t>2.アルバム更新画面に遷移</t>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「タイトル」に30文字以上入力する</t>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.写真を10枚以上選択する</t>
+    <rPh sb="2" eb="4">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「このフィールドに入力してください」と表示</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「一つ以上のファイルを選択してください」と表示</t>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」を未選択にし、「更新」ボタンを押す</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「タイトル」を未選択にし、「更新」ボタンを押す</t>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加アイコンの表示</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」を選択する</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレビューエリアに表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.「写真」でJPEG、PNG、GIFを選択する</t>
+    <rPh sb="3" eb="5">
+      <t>シャシン</t>
     </rPh>
     <rPh sb="20" eb="22">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JPEG、PNG、GIFのみ選択可</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバム更新画面のURL/album-update.phpが表示されているか</t>
+    <rPh sb="4" eb="6">
       <t>コウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL/album-update.phpの表示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当アルバムの「写真」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30文字で制御される</t>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10枚まで選択可能</t>
+    <rPh sb="2" eb="3">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3569,7 +2040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3591,9 +2062,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5023,7 +3491,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13ADE751-4185-4F2E-B533-55EECBB89263}" name="テーブル22" displayName="テーブル22" ref="A7:I51" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{13ADE751-4185-4F2E-B533-55EECBB89263}" name="テーブル22" displayName="テーブル22" ref="A7:I17" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B2795F3E-6CE7-4F82-BD91-97BA079D443E}" name="項目番号" dataDxfId="100"/>
     <tableColumn id="2" xr3:uid="{9B8A3776-2CD0-42B0-8BD8-6691ADEA8606}" name="大項目" dataDxfId="99"/>
@@ -5057,7 +3525,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F28AD1DE-70CC-47EA-9172-BE06D8443B2D}" name="テーブル36" displayName="テーブル36" ref="A52:I89" headerRowCount="0" totalsRowShown="0" headerRowDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F28AD1DE-70CC-47EA-9172-BE06D8443B2D}" name="テーブル36" displayName="テーブル36" ref="A18:I28" headerRowCount="0" totalsRowShown="0" headerRowDxfId="91">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{6370C07D-4B32-410B-837C-CA2529C0E596}" name="項目番号" headerRowDxfId="90" dataDxfId="89"/>
     <tableColumn id="2" xr3:uid="{E285C7BF-EBDE-4E8B-9926-18DDC417CC36}" name="大項目" headerRowDxfId="88" dataDxfId="87"/>
@@ -5108,7 +3576,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6688ECC4-4D6F-4C77-B1F2-18477D12A3B6}" name="テーブル22810" displayName="テーブル22810" ref="A7:I68" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6688ECC4-4D6F-4C77-B1F2-18477D12A3B6}" name="テーブル22810" displayName="テーブル22810" ref="A7:I25" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2D33342D-97FD-49C9-A99B-79A39CE1C572}" name="項目番号" dataDxfId="52"/>
     <tableColumn id="2" xr3:uid="{0903F38B-DCC4-4385-AB6B-16DD94CD088E}" name="大項目" dataDxfId="51"/>
@@ -5125,7 +3593,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7AC8FC9F-AAC3-4957-88EC-67010AF7807A}" name="テーブル36911" displayName="テーブル36911" ref="A71:I75" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7AC8FC9F-AAC3-4957-88EC-67010AF7807A}" name="テーブル36911" displayName="テーブル36911" ref="A28:I32" headerRowCount="0" totalsRowShown="0" headerRowDxfId="43">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FD419F7B-FADE-4072-A9C2-1E6C309A65DD}" name="項目番号" headerRowDxfId="42" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{FD45A810-9734-4281-9D64-2A717DBFABB8}" name="大項目" headerRowDxfId="40"/>
@@ -5142,7 +3610,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I39" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I19" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="31"/>
@@ -5159,7 +3627,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A40:I44" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A20:I24" headerRowCount="0" totalsRowShown="0" headerRowDxfId="23">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="22" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="20"/>
@@ -5509,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A1A857-B7E4-4351-AD44-8F6DAF254401}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5530,13 +3998,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5563,12 +4031,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -5609,19 +4077,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="G8" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -5631,7 +4099,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -5647,19 +4115,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="G10" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -5669,7 +4137,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5685,19 +4153,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="G12" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -5707,7 +4175,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -5723,19 +4191,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="G14" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -5744,36 +4212,34 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="G16" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -5782,9 +4248,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -5792,26 +4256,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -5821,35 +4285,35 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="G20" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5859,7 +4323,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -5868,26 +4332,26 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
       <c r="G22" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -5896,9 +4360,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -5906,26 +4368,26 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="G24" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -5934,36 +4396,34 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="G26" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5972,36 +4432,34 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="G28" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -6010,9 +4468,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>79</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -6020,26 +4476,26 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="G30" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -6049,1515 +4505,12 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>14</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
-        <v>15</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G34" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G36" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="2">
-        <v>17</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G38" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
-        <v>19</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
-        <v>20</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G42" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <v>21</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G44" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="2">
-        <v>22</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G46" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="2">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="2">
-        <v>24</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G50" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="2">
-        <v>25</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G52" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="2">
-        <v>26</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G54" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="2">
-        <v>27</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G56" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="2">
-        <v>29</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G58" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="2">
-        <v>30</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="2">
-        <v>31</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G62" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="2">
-        <v>32</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G64" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2">
-        <v>33</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G66" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2">
-        <v>34</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G68" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="2">
-        <v>35</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G70" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="2">
-        <v>36</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G72" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2">
-        <v>37</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G74" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="2">
-        <v>38</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G76" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="2">
-        <v>39</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G78" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="2">
-        <v>40</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G80" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="2">
-        <v>41</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G82" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="2">
-        <v>42</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G84" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2">
-        <v>43</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G86" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2">
-        <v>44</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G88" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2">
-        <v>45</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G90" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2">
-        <v>46</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G92" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="2">
-        <v>47</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G94" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="2">
-        <v>48</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G96" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="2">
-        <v>49</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G98" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="2">
-        <v>50</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G100" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="2">
-        <v>51</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G102" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="2">
-        <v>52</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G104" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="2">
-        <v>53</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G106" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="2">
-        <v>54</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G108" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="2">
-        <v>55</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G110" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7595,13 +4548,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7633,7 +4586,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -7674,19 +4627,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3">
         <v>45826</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -7696,7 +4649,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -7709,7 +4662,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -7725,19 +4678,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <v>45826</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -7747,7 +4700,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -7760,7 +4713,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -7776,19 +4729,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G14" s="3">
         <v>45826</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -7798,7 +4751,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -7811,7 +4764,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -7827,19 +4780,19 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G17" s="3">
         <v>45826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -7849,7 +4802,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -7862,7 +4815,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4"/>
@@ -7878,19 +4831,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="G20" s="3">
         <v>45826</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -7900,7 +4853,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -7913,7 +4866,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -7929,19 +4882,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G23" s="3">
         <v>45826</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -7951,7 +4904,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -7964,7 +4917,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -7980,19 +4933,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>188</v>
+        <v>82</v>
       </c>
       <c r="G26" s="3">
         <v>45826</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -8002,7 +4955,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="4"/>
@@ -8015,7 +4968,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="4"/>
@@ -8031,19 +4984,19 @@
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>187</v>
+        <v>81</v>
       </c>
       <c r="G29" s="3">
         <v>45826</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -8053,7 +5006,7 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="4"/>
@@ -8066,7 +5019,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="3"/>
@@ -8082,19 +5035,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G32" s="3">
         <v>45826</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -8104,7 +5057,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -8117,7 +5070,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -8133,19 +5086,19 @@
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G35" s="3">
         <v>45826</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2"/>
     </row>
@@ -8155,7 +5108,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -8168,7 +5121,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -8184,19 +5137,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G38" s="3">
         <v>45826</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -8206,7 +5159,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="4"/>
@@ -8219,7 +5172,7 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="4"/>
@@ -8235,19 +5188,19 @@
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G41" s="3">
         <v>45826</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I41" s="2"/>
     </row>
@@ -8257,7 +5210,7 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -8270,7 +5223,7 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -8286,19 +5239,19 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G44" s="3">
         <v>45826</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I44" s="2"/>
     </row>
@@ -8308,7 +5261,7 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -8321,7 +5274,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -8337,19 +5290,19 @@
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G47" s="3">
         <v>45826</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I47" s="2"/>
     </row>
@@ -8359,7 +5312,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -8372,7 +5325,7 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
@@ -8388,19 +5341,19 @@
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G50" s="3">
         <v>45826</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I50" s="2"/>
     </row>
@@ -8410,7 +5363,7 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -8423,7 +5376,7 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -8439,19 +5392,19 @@
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G53" s="3">
         <v>45826</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I53" s="2"/>
     </row>
@@ -8461,7 +5414,7 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -8474,7 +5427,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="3"/>
@@ -8490,19 +5443,19 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="G56" s="3">
         <v>45826</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I56" s="5"/>
     </row>
@@ -8512,7 +5465,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="3"/>
@@ -8525,7 +5478,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -8537,23 +5490,23 @@
         <v>18</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>190</v>
+        <v>84</v>
       </c>
       <c r="G59" s="3">
         <v>45826</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -8562,10 +5515,10 @@
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -8578,7 +5531,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2" t="s">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -8611,10 +5564,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8632,13 +5585,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8665,12 +5618,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -8703,25 +5656,27 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>260</v>
+        <v>121</v>
       </c>
       <c r="G8" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -8731,7 +5686,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -8744,7 +5699,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -8753,26 +5708,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>261</v>
+        <v>125</v>
       </c>
       <c r="G11" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -8782,7 +5737,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -8795,7 +5750,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -8804,26 +5759,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>233</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>262</v>
+        <v>88</v>
       </c>
       <c r="G14" s="3">
-        <v>45826</v>
+        <v>45993</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -8833,7 +5788,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -8846,7 +5801,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -8854,29 +5809,37 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -8884,12 +5847,12 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -8897,29 +5860,39 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -8927,12 +5900,12 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -8940,29 +5913,37 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>237</v>
+        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -8970,602 +5951,17 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="7"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="7"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="7"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="7"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="7"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="7"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="7"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="7"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="7"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="7"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="7"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="7"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="7"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="7"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="7"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="7"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="7"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="7"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="7"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="7"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="7"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="7"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="7"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="7"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="7"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="2">
-        <v>3</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G65" s="3">
-        <v>45826</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9582,10 +5978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9603,13 +5999,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9636,12 +6032,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9682,16 +6078,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9700,7 +6100,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
@@ -9716,16 +6116,20 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9734,7 +6138,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -9750,16 +6154,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9768,7 +6176,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -9784,16 +6192,20 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="G14" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9802,7 +6214,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3"/>
@@ -9818,16 +6230,20 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="G16" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -9836,7 +6252,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3"/>
@@ -9844,25 +6260,29 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="A18" s="5">
         <v>6</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
-        <v>207</v>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2"/>
@@ -9870,354 +6290,12 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="2">
-        <v>8</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>9</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="2">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="2">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="2">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="2">
-        <v>13</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
-        <v>14</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <v>15</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5">
-        <v>16</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10255,7 +6333,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -10293,7 +6371,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10332,19 +6410,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3">
         <v>45826</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -10354,7 +6432,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -10367,7 +6445,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -10383,19 +6461,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3">
         <v>45826</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -10405,7 +6483,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4"/>
@@ -10418,7 +6496,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -10434,19 +6512,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3">
         <v>45826</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -10456,7 +6534,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="4"/>
@@ -10469,7 +6547,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -10481,23 +6559,23 @@
         <v>4</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>168</v>
+        <v>65</v>
       </c>
       <c r="G17" s="3">
         <v>45826</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -10507,7 +6585,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="5" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="4"/>
@@ -10520,7 +6598,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -10536,19 +6614,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G20" s="3">
         <v>45826</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -10558,7 +6636,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -10571,7 +6649,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -10587,19 +6665,19 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="G23" s="3">
         <v>45826</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -10609,7 +6687,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -10622,7 +6700,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -10645,8 +6723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9A8E5-C2A7-4B04-BCDA-0A5EB24D8FBF}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="66" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -10664,13 +6742,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10697,12 +6775,12 @@
         <v>15</v>
       </c>
       <c r="C4" s="3">
-        <v>45826</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10743,16 +6821,20 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>221</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="G9" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10761,7 +6843,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
@@ -10774,7 +6856,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
@@ -10790,16 +6872,20 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10808,7 +6894,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3"/>
@@ -10821,7 +6907,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3"/>
@@ -10837,16 +6923,20 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>219</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>218</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="G15" s="3">
+        <v>45993</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -10855,7 +6945,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>223</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -10868,7 +6958,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>

--- a/アルバム更新・削除_単体テスト.xlsx
+++ b/アルバム更新・削除_単体テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2BD7E0-ACC5-4EA8-9274-1544F391E98E}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="13_ncr:1_{A79FEBA2-56B8-4B68-A8E8-7A4AD747AB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F20776BC-A388-4DE7-A9BC-71D31FB8D16C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -3980,7 +3980,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4236,10 +4236,10 @@
         <v>157</v>
       </c>
       <c r="G16" s="3">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -5566,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB2A5A5-6081-45A6-AF3A-1B25C5A8823E}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5673,10 +5673,10 @@
         <v>121</v>
       </c>
       <c r="G8" s="3">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -5724,10 +5724,10 @@
         <v>125</v>
       </c>
       <c r="G11" s="3">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2"/>
     </row>
